--- a/docs/StructureDefinition-BRPlanoCuidados-1.0.xlsx
+++ b/docs/StructureDefinition-BRPlanoCuidados-1.0.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>

--- a/docs/StructureDefinition-BRPlanoCuidados-1.0.xlsx
+++ b/docs/StructureDefinition-BRPlanoCuidados-1.0.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-BRPlanoCuidados-1.0.xlsx
+++ b/docs/StructureDefinition-BRPlanoCuidados-1.0.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="605">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -760,7 +760,10 @@
     <t>CarePlan.subject.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -774,6 +777,150 @@
   </si>
   <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient</t>
+  </si>
+  <si>
+    <t>unidentifiedPatient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://www.saude.gov.br/fhir/r4/StructureDefinition/BRIndividuoNaoIdentificado-1.0}
+</t>
+  </si>
+  <si>
+    <t>Dados do Indivíduo Não Identificado</t>
+  </si>
+  <si>
+    <t>Informações demográficas básicas e justificativa dos indivíduos que não podem ser identificados por razões clínicas ou sociais, conforme legislação brasileira, com finalidade estatística.</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.id</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension.id</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension.extension</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.extension:gender</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.extension:gender.id</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension.extension.id</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.extension:gender.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.extension:gender.url</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.extension:gender.value[x]</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.extension:birthYear</t>
+  </si>
+  <si>
+    <t>birthYear</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.extension:birthYear.id</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.extension:birthYear.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.extension:birthYear.url</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.extension:birthYear.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.extension:reason</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.extension:reason.id</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.extension:reason.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.extension:reason.url</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.extension:reason.value[x]</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.url</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension.url</t>
+  </si>
+  <si>
+    <t>http://www.saude.gov.br/fhir/r4/StructureDefinition/BRIndividuoNaoIdentificado-1.0</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension:unidentifiedPatient.value[x]</t>
+  </si>
+  <si>
+    <t>CarePlan.subject.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>CarePlan.subject.reference</t>
@@ -2072,7 +2219,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN75"/>
+  <dimension ref="A1:AN95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2081,9 +2228,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.30078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.30078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="70.60546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.80859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.34765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2091,7 +2238,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="143.8828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4761,7 +4908,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4783,14 +4930,12 @@
         <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4827,19 +4972,19 @@
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4857,7 +5002,7 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -4868,12 +5013,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4882,29 +5029,27 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4953,25 +5098,25 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
@@ -4985,7 +5130,7 @@
         <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4996,7 +5141,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -5005,20 +5150,18 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5043,13 +5186,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -5067,7 +5210,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5079,13 +5222,13 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
@@ -5096,10 +5239,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5107,10 +5250,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -5119,20 +5262,18 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5169,37 +5310,37 @@
         <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
@@ -5210,24 +5351,26 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>81</v>
@@ -5236,13 +5379,13 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5293,25 +5436,25 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
@@ -5322,21 +5465,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -5348,17 +5491,15 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5395,31 +5536,31 @@
         <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -5436,46 +5577,44 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>135</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5499,63 +5638,63 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5563,10 +5702,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5575,29 +5714,27 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>81</v>
@@ -5615,13 +5752,13 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -5639,10 +5776,10 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>89</v>
@@ -5651,27 +5788,27 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5691,23 +5828,19 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5719,7 +5852,7 @@
         <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>81</v>
@@ -5755,7 +5888,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5773,23 +5906,25 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5801,26 +5936,24 @@
         <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5833,7 +5966,7 @@
         <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>81</v>
@@ -5869,39 +6002,39 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5912,7 +6045,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5921,16 +6054,16 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5981,7 +6114,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5993,38 +6126,38 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -6033,19 +6166,19 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>135</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>311</v>
+        <v>137</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6083,51 +6216,51 @@
         <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6135,10 +6268,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6147,19 +6280,19 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6167,7 +6300,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>81</v>
@@ -6209,10 +6342,10 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>89</v>
@@ -6221,7 +6354,7 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -6238,10 +6371,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6249,10 +6382,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6261,20 +6394,18 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6323,7 +6454,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6338,60 +6469,58 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>326</v>
+        <v>131</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>328</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="D38" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>301</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>238</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6439,50 +6568,50 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>329</v>
+        <v>243</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>257</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6491,16 +6620,16 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>341</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
+        <v>233</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>343</v>
+        <v>234</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6551,7 +6680,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>339</v>
+        <v>235</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6563,16 +6692,16 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>345</v>
+        <v>236</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6580,21 +6709,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -6603,19 +6732,19 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>348</v>
+        <v>134</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>349</v>
+        <v>135</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6653,40 +6782,40 @@
         <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>347</v>
+        <v>243</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6694,10 +6823,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>283</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>354</v>
+        <v>262</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6705,10 +6834,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6720,16 +6849,16 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>348</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>355</v>
+        <v>263</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>356</v>
+        <v>264</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>357</v>
+        <v>265</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6737,7 +6866,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>81</v>
@@ -6779,25 +6908,25 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
@@ -6808,10 +6937,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>268</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6819,10 +6948,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6834,18 +6963,16 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>359</v>
+        <v>205</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>360</v>
+        <v>269</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>361</v>
+        <v>270</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>362</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
@@ -6893,13 +7020,13 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
@@ -6908,13 +7035,13 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6922,10 +7049,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>285</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
+        <v>286</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6933,10 +7060,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -6945,29 +7072,27 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>366</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>263</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
+        <v>264</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>81</v>
@@ -7009,39 +7134,39 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>365</v>
+        <v>266</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>372</v>
+        <v>131</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>375</v>
+        <v>289</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7064,20 +7189,16 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>376</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>377</v>
+        <v>269</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7125,13 +7246,13 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>375</v>
+        <v>271</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
@@ -7140,10 +7261,10 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
@@ -7154,10 +7275,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>291</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
+        <v>291</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7177,23 +7298,21 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>383</v>
+        <v>215</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>292</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7241,16 +7360,16 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>382</v>
+        <v>295</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>100</v>
@@ -7259,21 +7378,21 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>388</v>
+        <v>131</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>297</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>390</v>
+        <v>297</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7293,21 +7412,21 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>391</v>
+        <v>102</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>392</v>
+        <v>298</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7331,13 +7450,13 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -7355,25 +7474,25 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>390</v>
+        <v>304</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>395</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>397</v>
+        <v>131</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7384,10 +7503,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>305</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>398</v>
+        <v>305</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7395,7 +7514,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
@@ -7407,18 +7526,20 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7467,7 +7588,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7479,13 +7600,13 @@
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
@@ -7496,21 +7617,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>311</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>399</v>
+        <v>311</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7522,17 +7643,15 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7581,19 +7700,19 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -7610,14 +7729,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>401</v>
+        <v>133</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7630,26 +7749,24 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>402</v>
+        <v>135</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>403</v>
+        <v>260</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O49" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7685,19 +7802,19 @@
         <v>81</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>404</v>
+        <v>243</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7715,7 +7832,7 @@
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>81</v>
@@ -7726,10 +7843,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>313</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>405</v>
+        <v>313</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7740,30 +7857,32 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>406</v>
+        <v>314</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>407</v>
+        <v>315</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
@@ -7787,13 +7906,13 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>409</v>
+        <v>318</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>410</v>
+        <v>319</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -7811,13 +7930,13 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
@@ -7829,21 +7948,21 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>411</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>411</v>
+        <v>322</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7854,7 +7973,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -7863,22 +7982,22 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>376</v>
+        <v>205</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>412</v>
+        <v>323</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>413</v>
+        <v>324</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>414</v>
+        <v>325</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>415</v>
+        <v>326</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7903,13 +8022,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -7927,13 +8046,13 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>411</v>
+        <v>329</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
@@ -7942,24 +8061,24 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>417</v>
+        <v>321</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>418</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>418</v>
+        <v>331</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7967,10 +8086,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -7979,22 +8098,22 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>419</v>
+        <v>102</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>420</v>
+        <v>332</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>421</v>
+        <v>333</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>422</v>
+        <v>334</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>423</v>
+        <v>335</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8007,7 +8126,7 @@
         <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>81</v>
@@ -8043,13 +8162,13 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>418</v>
+        <v>337</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
@@ -8061,21 +8180,21 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>424</v>
+        <v>338</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>425</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>426</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>426</v>
+        <v>340</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8083,7 +8202,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>89</v>
@@ -8095,23 +8214,21 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>427</v>
+        <v>215</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>428</v>
+        <v>341</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>429</v>
+        <v>342</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8123,7 +8240,7 @@
         <v>81</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>81</v>
@@ -8159,7 +8276,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>426</v>
+        <v>345</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8168,30 +8285,30 @@
         <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>433</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>434</v>
+        <v>348</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>434</v>
+        <v>348</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8202,7 +8319,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -8211,21 +8328,19 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>435</v>
+        <v>350</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>436</v>
+        <v>351</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8273,7 +8388,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>434</v>
+        <v>352</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8282,7 +8397,7 @@
         <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
@@ -8291,21 +8406,21 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>438</v>
+        <v>353</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>81</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>355</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>439</v>
+        <v>355</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8316,7 +8431,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8325,18 +8440,20 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>215</v>
+        <v>356</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8385,7 +8502,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>235</v>
+        <v>360</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8397,38 +8514,38 @@
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>236</v>
+        <v>361</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>440</v>
+        <v>363</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>440</v>
+        <v>363</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8437,19 +8554,19 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>135</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>238</v>
+        <v>365</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>137</v>
+        <v>366</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8499,25 +8616,25 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>242</v>
+        <v>367</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
@@ -8528,46 +8645,44 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>441</v>
+        <v>368</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>441</v>
+        <v>368</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>134</v>
+        <v>369</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
       </c>
@@ -8615,50 +8730,50 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>81</v>
+        <v>373</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>131</v>
+        <v>374</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>81</v>
+        <v>375</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>442</v>
+        <v>377</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>442</v>
+        <v>377</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -8667,20 +8782,22 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>108</v>
+        <v>349</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>443</v>
+        <v>379</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O58" t="s" s="2">
-        <v>445</v>
+        <v>382</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8705,13 +8822,13 @@
         <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>446</v>
+        <v>81</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>447</v>
+        <v>81</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>81</v>
@@ -8729,7 +8846,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>442</v>
+        <v>377</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8744,35 +8861,35 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>449</v>
+        <v>387</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -8781,21 +8898,19 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>157</v>
+        <v>390</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>451</v>
+        <v>391</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>452</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -8843,13 +8958,13 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>449</v>
+        <v>387</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>81</v>
@@ -8858,13 +8973,13 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>159</v>
+        <v>392</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>160</v>
+        <v>393</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -8872,10 +8987,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>453</v>
+        <v>395</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>453</v>
+        <v>395</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8886,7 +9001,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -8895,23 +9010,21 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>102</v>
+        <v>396</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>162</v>
+        <v>397</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
@@ -8959,13 +9072,13 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>453</v>
+        <v>395</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
@@ -8974,13 +9087,13 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>165</v>
+        <v>400</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -8988,10 +9101,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9002,7 +9115,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9014,20 +9127,18 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>205</v>
+        <v>396</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>456</v>
+        <v>403</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>457</v>
+        <v>404</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9051,13 +9162,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>460</v>
+        <v>81</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>461</v>
+        <v>81</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9075,13 +9186,13 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
@@ -9090,24 +9201,24 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>462</v>
+        <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>463</v>
+        <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>464</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>465</v>
+        <v>406</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>465</v>
+        <v>406</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9118,7 +9229,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -9130,18 +9241,18 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>205</v>
+        <v>407</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>466</v>
+        <v>408</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9165,13 +9276,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>469</v>
+        <v>81</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>470</v>
+        <v>81</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9189,7 +9300,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>465</v>
+        <v>406</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9204,13 +9315,13 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>471</v>
+        <v>411</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9218,10 +9329,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>472</v>
+        <v>413</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>472</v>
+        <v>413</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9232,7 +9343,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9241,21 +9352,23 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>473</v>
+        <v>414</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>475</v>
+        <v>416</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9303,7 +9416,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>472</v>
+        <v>413</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9318,24 +9431,24 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>477</v>
+        <v>423</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>477</v>
+        <v>423</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9346,7 +9459,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9358,17 +9471,19 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>478</v>
+        <v>425</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>480</v>
+        <v>428</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -9417,7 +9532,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>477</v>
+        <v>423</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9432,10 +9547,10 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9446,10 +9561,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>481</v>
+        <v>430</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>481</v>
+        <v>430</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9457,34 +9572,34 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>108</v>
+        <v>431</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>482</v>
+        <v>432</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>483</v>
+        <v>433</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -9509,13 +9624,13 @@
         <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>486</v>
+        <v>81</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>487</v>
+        <v>81</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>81</v>
@@ -9533,13 +9648,13 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>481</v>
+        <v>430</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>81</v>
@@ -9548,24 +9663,24 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>488</v>
+        <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>489</v>
+        <v>436</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>490</v>
+        <v>437</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>491</v>
+        <v>438</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>491</v>
+        <v>438</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9576,7 +9691,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
@@ -9588,18 +9703,18 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>205</v>
+        <v>439</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>492</v>
+        <v>440</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -9647,25 +9762,25 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>491</v>
+        <v>438</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>443</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>495</v>
+        <v>444</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -9676,10 +9791,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9696,32 +9811,26 @@
         <v>81</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>497</v>
+        <v>215</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>498</v>
+        <v>233</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q67" t="s" s="2">
-        <v>502</v>
-      </c>
+      <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
         <v>81</v>
       </c>
@@ -9765,7 +9874,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>496</v>
+        <v>235</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9777,13 +9886,13 @@
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>503</v>
+        <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>504</v>
+        <v>236</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9794,21 +9903,21 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>505</v>
+        <v>447</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>505</v>
+        <v>447</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>81</v>
@@ -9820,18 +9929,18 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>506</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>507</v>
+        <v>135</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
       </c>
@@ -9879,74 +9988,74 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>505</v>
+        <v>243</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>510</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>511</v>
+        <v>448</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>511</v>
+        <v>448</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>512</v>
+        <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>513</v>
+        <v>450</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>514</v>
+        <v>451</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>515</v>
+        <v>137</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>516</v>
+        <v>143</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -9995,39 +10104,39 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>511</v>
+        <v>452</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>517</v>
+        <v>131</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>518</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10050,20 +10159,18 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>520</v>
+        <v>205</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>521</v>
+        <v>454</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>522</v>
+        <v>455</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10087,13 +10194,13 @@
         <v>81</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>81</v>
+        <v>457</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>81</v>
@@ -10111,7 +10218,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10126,24 +10233,24 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>525</v>
+        <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>526</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10154,7 +10261,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
@@ -10166,16 +10273,20 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>528</v>
+        <v>424</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>529</v>
+        <v>460</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10199,13 +10310,13 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>531</v>
+        <v>81</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -10223,13 +10334,13 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>81</v>
@@ -10238,35 +10349,35 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>533</v>
+        <v>465</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>534</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>535</v>
+        <v>466</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>535</v>
+        <v>466</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>536</v>
+        <v>81</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>81</v>
@@ -10278,17 +10389,19 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>538</v>
+        <v>468</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="O72" t="s" s="2">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -10337,13 +10450,13 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>535</v>
+        <v>466</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>81</v>
@@ -10355,21 +10468,21 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>541</v>
+        <v>472</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>542</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>543</v>
+        <v>474</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>543</v>
+        <v>474</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10392,16 +10505,20 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>537</v>
+        <v>475</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>81</v>
       </c>
@@ -10449,7 +10566,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>543</v>
+        <v>474</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10458,30 +10575,30 @@
         <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>81</v>
+        <v>480</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>81</v>
+        <v>481</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>546</v>
+        <v>445</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>547</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>548</v>
+        <v>482</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>548</v>
+        <v>482</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10504,16 +10621,18 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>215</v>
+        <v>439</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>549</v>
+        <v>483</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>550</v>
+        <v>484</v>
       </c>
       <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
@@ -10561,7 +10680,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>548</v>
+        <v>482</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10570,7 +10689,7 @@
         <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>81</v>
+        <v>480</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>100</v>
@@ -10579,21 +10698,21 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>551</v>
+        <v>486</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>552</v>
+        <v>487</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>552</v>
+        <v>487</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10604,7 +10723,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -10616,18 +10735,16 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>419</v>
+        <v>215</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>553</v>
+        <v>233</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>554</v>
+        <v>234</v>
       </c>
       <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>555</v>
-      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
       </c>
@@ -10675,35 +10792,2325 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q87" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="AG75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH75" t="s" s="2">
+      <c r="AM87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
+      <c r="H90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK75" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>425</v>
+      <c r="AK90" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN75">
+  <autoFilter ref="A1:AN95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10713,7 +13120,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-BRPlanoCuidados-1.0.xlsx
+++ b/docs/StructureDefinition-BRPlanoCuidados-1.0.xlsx
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/docs/StructureDefinition-BRPlanoCuidados-1.0.xlsx
+++ b/docs/StructureDefinition-BRPlanoCuidados-1.0.xlsx
@@ -2228,15 +2228,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="70.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.34765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="67.63671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.4921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2247,26 +2247,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="153.9765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.6484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="147.01953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.90625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="52.93359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="165.953125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="139.48046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="50.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="159.1015625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.4453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="131.5703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5253,7 +5253,7 @@
         <v>253</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-BRPlanoCuidados-1.0.xlsx
+++ b/docs/StructureDefinition-BRPlanoCuidados-1.0.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -2228,15 +2228,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="67.63671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.4921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.5" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.15625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="35.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.65234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2247,26 +2247,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="147.01953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.90625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.54296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="140.19921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.21875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.56640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.62890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="50.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="159.1015625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="131.5703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="48.6171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="151.71875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="30.9375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="125.46484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5029,7 +5029,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
